--- a/data/en/aguas_residuais.xlsx
+++ b/data/en/aguas_residuais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291EB0FC-9AF2-4C1E-A0E4-C090988CF3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0416B1-93F8-4073-925D-63BC434503D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE37B737-4692-4133-B4DE-383B2A7C516C}"/>
+    <workbookView xWindow="1776" yWindow="840" windowWidth="19812" windowHeight="11520" xr2:uid="{AE37B737-4692-4133-B4DE-383B2A7C516C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
   <si>
     <t>Alcântara</t>
   </si>
@@ -107,10 +107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,19 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C094BF8C-7E84-4C15-AD2D-FEE22ED5903E}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -461,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -484,7 +485,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -507,7 +508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -530,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -556,7 +557,7 @@
         <v>26.428818374752115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -579,7 +580,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -602,7 +603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -625,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -651,7 +652,7 @@
         <v>27.775648544830361</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -674,7 +675,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -697,7 +698,7 @@
         <v>53.999999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -720,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -746,7 +747,7 @@
         <v>27.101557975283058</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -769,7 +770,7 @@
         <v>27.999999999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -792,7 +793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -815,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -841,7 +842,7 @@
         <v>27.712739552015154</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -865,7 +866,7 @@
         <v>27.999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -889,7 +890,7 @@
         <v>53.999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -913,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -939,7 +940,7 @@
         <v>27.446388888695438</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2008</v>
       </c>
@@ -962,7 +963,7 @@
         <v>21.205118470209015</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -985,7 +986,7 @@
         <v>57.483977673179524</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>25.096204450414984</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2009</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2009</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2009</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>28.386161890996558</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2010</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>28.874526137586678</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>25.561413684005419</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2012</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>22.400000000000013</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2012</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>53.496009726312167</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2012</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2012</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>25.113635289227492</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2013</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>22.400000000000013</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2013</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>51.028779318403558</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2013</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2013</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>24.383153976300314</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>22.39965544088658</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>51.031668486694635</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2014</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>23.990875306566139</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>22.000000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>51.000000000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2015</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>24.223290734238677</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2016</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2016</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>23.419105853847018</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>22.4000005888538</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2017</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>51.028779119218747</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2017</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>23.622997781322468</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>22.40000060757442</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>51.028777020376424</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2018</v>
       </c>
@@ -1977,6 +1978,104 @@
       <c r="E65" s="1">
         <f>+SUM(E62:E64)</f>
         <v>80.192757</v>
+      </c>
+      <c r="F65" s="3">
+        <v>76.014488440645579</v>
+      </c>
+      <c r="G65" s="3">
+        <v>23.985511559354418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2019</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>37.690936999999998</v>
+      </c>
+      <c r="D66">
+        <v>10.879859</v>
+      </c>
+      <c r="E66">
+        <v>48.570796000000001</v>
+      </c>
+      <c r="F66">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G66">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2019</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>6.9094376740000003</v>
+      </c>
+      <c r="D67">
+        <v>7.1997419999999996</v>
+      </c>
+      <c r="E67">
+        <v>14.10917967</v>
+      </c>
+      <c r="F67">
+        <v>48.97</v>
+      </c>
+      <c r="G67">
+        <v>51.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2019</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>12.240069999999999</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>12.240069999999999</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2019</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>56.840444669999997</v>
+      </c>
+      <c r="D69">
+        <v>18.079601</v>
+      </c>
+      <c r="E69">
+        <v>74.920045669999993</v>
+      </c>
+      <c r="F69">
+        <v>75.87</v>
+      </c>
+      <c r="G69">
+        <v>24.13</v>
       </c>
     </row>
   </sheetData>
